--- a/data/trans_dic/P62A$otras-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P62A$otras-Provincia-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2420809509868759</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2743057930238939</v>
+        <v>0.274305793023894</v>
       </c>
     </row>
     <row r="5">
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08049036173976605</v>
+        <v>0.08414681341116099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.100851240033131</v>
+        <v>0.1005288590707177</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1310610547312231</v>
+        <v>0.1270446778979172</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1698864815638018</v>
+        <v>0.1706252513142808</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1726177778960329</v>
+        <v>0.178670540090249</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1589060963833391</v>
+        <v>0.1648335567314093</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008896731228250783</v>
+        <v>0.008933879839443557</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1528812194283273</v>
+        <v>0.1514874866705777</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.167716534517027</v>
+        <v>0.1618034977665985</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1879275072956351</v>
+        <v>0.1870921033742984</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09347341459984224</v>
+        <v>0.09062169371606223</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2796747630524109</v>
+        <v>0.2966609306817878</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3161272510599126</v>
+        <v>0.3061939037272483</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4526095091364482</v>
+        <v>0.4421382827568229</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1587413198418371</v>
+        <v>0.157805090413888</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3967975971551493</v>
+        <v>0.3878373609225019</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4273014918849543</v>
+        <v>0.4419886352410753</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3957056344764941</v>
+        <v>0.418517602902839</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08498606524518661</v>
+        <v>0.07709518900097824</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2977554375146697</v>
+        <v>0.2929878907889438</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3304237239355453</v>
+        <v>0.3368072857634692</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3706109262796758</v>
+        <v>0.3851517871455945</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1231869342195299</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1648418046561862</v>
+        <v>0.1648418046561863</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0756699413106766</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02424200632261348</v>
+        <v>0.0229694764572322</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07904624669364822</v>
+        <v>0.07744721212224283</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1004382800696917</v>
+        <v>0.1095560509820498</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02692615313426925</v>
+        <v>0.03494087509384391</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1006976485702911</v>
+        <v>0.1089988369462138</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02413510341519419</v>
+        <v>0.03150826975707513</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1547300877550198</v>
+        <v>0.1591727974485625</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01846716537738494</v>
+        <v>0.01828765538564253</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06873585220634634</v>
+        <v>0.06779943638396334</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06832291524752024</v>
+        <v>0.06794572121115221</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.147879513136381</v>
+        <v>0.1456650964068354</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04920191068778449</v>
+        <v>0.05179436136168232</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1207667999646772</v>
+        <v>0.117355104348888</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1917547139965015</v>
+        <v>0.181187646351651</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2352157874961349</v>
+        <v>0.2381303822614659</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1520378268322601</v>
+        <v>0.1603216467597808</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2879450076951136</v>
+        <v>0.2904184136470616</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.139290508139511</v>
+        <v>0.1445506023893271</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2670411559005887</v>
+        <v>0.2829511198990806</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07370443672057948</v>
+        <v>0.0735542735012492</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1599553894692995</v>
+        <v>0.1629830311944405</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1461368163252923</v>
+        <v>0.1477451309126923</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2372255782029147</v>
+        <v>0.2360626493021578</v>
       </c>
     </row>
     <row r="10">
@@ -981,37 +981,37 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.01215175196386375</v>
+        <v>0.01202710605998204</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02046537393997586</v>
+        <v>0.02053442225684245</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02617845923393993</v>
+        <v>0.02636714893922288</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04418706701910732</v>
+        <v>0.0438847891967546</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06656427410313043</v>
+        <v>0.06161107859652133</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02661471463249916</v>
+        <v>0.02778724913836014</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02216663598859781</v>
+        <v>0.02276100832197523</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05303944501182782</v>
+        <v>0.05334327179503315</v>
       </c>
     </row>
     <row r="12">
@@ -1023,37 +1023,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.140209775529787</v>
+        <v>0.1295940850232556</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05516049262206886</v>
+        <v>0.05531232727114013</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1169635910480113</v>
+        <v>0.1149507399378332</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1147502580647478</v>
+        <v>0.09568569847418686</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1580281891194925</v>
+        <v>0.1545580690898802</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1905929124297885</v>
+        <v>0.1884741978853746</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1661417150603594</v>
+        <v>0.1655684866591723</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05607578263648457</v>
+        <v>0.04759204962753708</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1217387738369661</v>
+        <v>0.1148784591068114</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09051357200580379</v>
+        <v>0.08930293592273386</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1214242292920777</v>
+        <v>0.1201729249076368</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.03512083308972336</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.09492450021633886</v>
+        <v>0.09492450021633889</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05026295327422638</v>
@@ -1115,37 +1115,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0296717265233494</v>
+        <v>0.02959522048256516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0110088698173362</v>
+        <v>0.0109042761292641</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06188672253291791</v>
+        <v>0.04737175758435927</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02885425458928809</v>
+        <v>0.02761964537648225</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03842500885258902</v>
+        <v>0.0388794917035459</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01109248086922036</v>
+        <v>0.01109658659716793</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05192278535709167</v>
+        <v>0.05293322733459138</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02176405311968519</v>
+        <v>0.02120326857216475</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04791941789707625</v>
+        <v>0.04606122236350816</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01706044431300716</v>
+        <v>0.0164719671176884</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06660130433091341</v>
+        <v>0.06888063796781115</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07981707335060306</v>
+        <v>0.0822598276134484</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1394521091594485</v>
+        <v>0.1328062391742316</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1068235412254739</v>
+        <v>0.1052353929995721</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2346413092909979</v>
+        <v>0.2100410774858631</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1676963579413627</v>
+        <v>0.1616196305324861</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1691449557423684</v>
+        <v>0.1704630171686613</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1088054412086057</v>
+        <v>0.1033889083915358</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1582048105195919</v>
+        <v>0.1618804712618379</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09960205292371931</v>
+        <v>0.09489351238393529</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1348326640024024</v>
+        <v>0.12956017917191</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08025948957527961</v>
+        <v>0.07789938157749692</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1718696971250997</v>
+        <v>0.1658765642785867</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.04327624604462429</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4330835535670509</v>
+        <v>0.4330835535670508</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.02858553334522831</v>
@@ -1237,7 +1237,7 @@
         <v>0.253302328029241</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3226471764398016</v>
+        <v>0.3226471764398015</v>
       </c>
     </row>
     <row r="17">
@@ -1251,37 +1251,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02068032188458104</v>
+        <v>0.0194312750194864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01401875250608765</v>
+        <v>0.01375228729267932</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.31539877173468</v>
+        <v>0.3097317342396443</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06214342020114858</v>
+        <v>0.06274691223138812</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3671889467038297</v>
+        <v>0.3667755028998358</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1607731298882832</v>
+        <v>0.1533857624053397</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06044174787189399</v>
+        <v>0.05961036524091845</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1859687465966894</v>
+        <v>0.1852971172582135</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2582349352108667</v>
+        <v>0.2560118252146968</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.120656725541788</v>
+        <v>0.09998690380729619</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1808670113879889</v>
+        <v>0.1655794680230623</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.11540847720045</v>
+        <v>0.118601899284069</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5580083630142691</v>
+        <v>0.5488276836150514</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1587098483607482</v>
+        <v>0.1573758744316345</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2664970129027953</v>
+        <v>0.2722854244878153</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.643331568072014</v>
+        <v>0.6359419605520532</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3267194544322813</v>
+        <v>0.309678643885259</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08468743583442323</v>
+        <v>0.07681433375276876</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1880798131138055</v>
+        <v>0.178615223561805</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3442714605594641</v>
+        <v>0.3468656907211383</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3935573030013949</v>
+        <v>0.393605265697907</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.07520425900060154</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06266766070928316</v>
+        <v>0.06266766070928317</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.03398845614790673</v>
@@ -1373,7 +1373,7 @@
         <v>0.05505555642907763</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1008834847965432</v>
+        <v>0.1008834847965433</v>
       </c>
     </row>
     <row r="20">
@@ -1390,34 +1390,34 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01307546678065744</v>
+        <v>0.01284133890673093</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07609789617376569</v>
+        <v>0.07708937273580128</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03240331429283774</v>
+        <v>0.03228230607353597</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02088519015776449</v>
+        <v>0.02099559015234275</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02635664102846956</v>
+        <v>0.02963107443783783</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.009201704001513397</v>
+        <v>0.009221926699317505</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01517967276455355</v>
+        <v>0.01500981093687494</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02185522942549546</v>
+        <v>0.0183925465994428</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06453983756538578</v>
+        <v>0.06642366007023365</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08349225483415539</v>
+        <v>0.09914912600290601</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07016550683544898</v>
+        <v>0.07098177891638105</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1159020850603239</v>
+        <v>0.1168279449758094</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2103968216110431</v>
+        <v>0.2053023221481462</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1853158821506236</v>
+        <v>0.1867491592743452</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1736017364846997</v>
+        <v>0.1713370165144905</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2121955494297897</v>
+        <v>0.2008235643352187</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1137939013091989</v>
+        <v>0.1132195972913305</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09421073911501282</v>
+        <v>0.08752056382894531</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.08988047756486749</v>
+        <v>0.09023825082183329</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1156189504007226</v>
+        <v>0.1098193324691845</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1443862421740016</v>
+        <v>0.1542605769520839</v>
       </c>
     </row>
     <row r="22">
@@ -1521,37 +1521,37 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>0.03854582745990379</v>
+        <v>0.03776383621743287</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02811147385203449</v>
+        <v>0.02824405324317003</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1666794490660657</v>
+        <v>0.1704454228363851</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.009455010133036578</v>
+        <v>0.009485297194577977</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0549887129418544</v>
+        <v>0.05547367067026653</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08249837201706603</v>
+        <v>0.08437059572106589</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1153280690635078</v>
+        <v>0.1144692880315954</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.00453601562989997</v>
+        <v>0.004252058962200983</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05699903260451754</v>
+        <v>0.05674889169510033</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06676014193325808</v>
+        <v>0.06664092413149819</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1551700112669962</v>
+        <v>0.1572410106299337</v>
       </c>
     </row>
     <row r="24">
@@ -1563,37 +1563,37 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.1326175564663606</v>
+        <v>0.135260113331154</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1127919187922813</v>
+        <v>0.1147327183113528</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2880203082353461</v>
+        <v>0.2814552082886325</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08199291080751231</v>
+        <v>0.09033842563101815</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1577705910315609</v>
+        <v>0.1690486687718231</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2038758936125341</v>
+        <v>0.2025591650554456</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2077659814839884</v>
+        <v>0.2035951412870267</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03791826679277858</v>
+        <v>0.03893168233296875</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1259504119280674</v>
+        <v>0.1274739508014547</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1441326024791756</v>
+        <v>0.1406128331512216</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2288112126080684</v>
+        <v>0.2335210500969137</v>
       </c>
     </row>
     <row r="25">
@@ -1629,7 +1629,7 @@
         <v>0.1317188939806879</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3766135314685123</v>
+        <v>0.3766135314685124</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.0154344267532917</v>
@@ -1641,7 +1641,7 @@
         <v>0.08305836013998309</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.5453689598989596</v>
+        <v>0.5453689598989597</v>
       </c>
     </row>
     <row r="26">
@@ -1653,37 +1653,37 @@
       </c>
       <c r="C26" s="5" t="inlineStr"/>
       <c r="D26" s="5" t="n">
-        <v>0.02764003343060834</v>
+        <v>0.02757808609692217</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0192069289196859</v>
+        <v>0.01969386939027528</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6400482011170839</v>
+        <v>0.6373577120271277</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.008260447705245555</v>
+        <v>0.009523670253052615</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07340336294904941</v>
+        <v>0.07964400037331378</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.08222647851872827</v>
+        <v>0.08342677868170396</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3198282353801543</v>
+        <v>0.3239814134430402</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.004150048588913503</v>
+        <v>0.003473722010701877</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.05896295526313254</v>
+        <v>0.05854006042161856</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0565291155223371</v>
+        <v>0.05455569265691234</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.504935347949607</v>
+        <v>0.5043765230694337</v>
       </c>
     </row>
     <row r="27">
@@ -1695,37 +1695,37 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.0976165715187125</v>
+        <v>0.09549819294770545</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.08098896882464296</v>
+        <v>0.08385036131943294</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7505098451774495</v>
+        <v>0.7482737102452308</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08925361101468134</v>
+        <v>0.08267380327552795</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1812004043393606</v>
+        <v>0.1811901046383284</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.191439507194003</v>
+        <v>0.195535058523022</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4335050817678448</v>
+        <v>0.4295999011017377</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03616307781627695</v>
+        <v>0.03471869420659272</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.117772142147243</v>
+        <v>0.1180511550193442</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.113660026196497</v>
+        <v>0.1138791750275619</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.5875858788194744</v>
+        <v>0.5863204868036166</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.1470565483102262</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.2100634886718032</v>
+        <v>0.2100634886718031</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.02561744496754178</v>
@@ -1784,40 +1784,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.00382867849808769</v>
+        <v>0.003605743727695019</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.05135175608165145</v>
+        <v>0.05134418808501572</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.05015537145719674</v>
+        <v>0.05128401881280647</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2826263671005508</v>
+        <v>0.2784663047855932</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.0323546080070905</v>
+        <v>0.03020704318614225</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1037859800721784</v>
+        <v>0.1079687871258593</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1245413684444014</v>
+        <v>0.1221704333870897</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1893105661739476</v>
+        <v>0.1859153307906549</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01754262505745434</v>
+        <v>0.01824129120381596</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.08210332864066042</v>
+        <v>0.08055102419779697</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.08793467438462153</v>
+        <v>0.08756012604729652</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2426364245692431</v>
+        <v>0.24337427363028</v>
       </c>
     </row>
     <row r="30">
@@ -1828,40 +1828,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01766007390331516</v>
+        <v>0.01776120358006245</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.08806155710320718</v>
+        <v>0.08752613757913985</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.08421653487939723</v>
+        <v>0.08438279717292076</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.337140433309432</v>
+        <v>0.3387306457656716</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.06674302125870396</v>
+        <v>0.06624851495019894</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1539071039322844</v>
+        <v>0.1596327032062562</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1768892627159373</v>
+        <v>0.1756601815752476</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2345141267829972</v>
+        <v>0.2319198740577479</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.03505453998732307</v>
+        <v>0.03535264077504194</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1140403859354958</v>
+        <v>0.1120471750970513</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1193484425406994</v>
+        <v>0.1171908669449161</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2780085145102574</v>
+        <v>0.2798699980035659</v>
       </c>
     </row>
     <row r="31">
@@ -2139,37 +2139,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6124</v>
+        <v>6402</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5875</v>
+        <v>5856</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3317</v>
+        <v>3216</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11690</v>
+        <v>11741</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>9490</v>
+        <v>9822</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4984</v>
+        <v>5170</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>22152</v>
+        <v>21950</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>18990</v>
+        <v>18321</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>10651</v>
+        <v>10603</v>
       </c>
     </row>
     <row r="7">
@@ -2180,40 +2180,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4934</v>
+        <v>4783</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21278</v>
+        <v>22571</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18415</v>
+        <v>17836</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11456</v>
+        <v>11191</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5638</v>
+        <v>5605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27305</v>
+        <v>26688</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>23491</v>
+        <v>24298</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12411</v>
+        <v>13126</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7505</v>
+        <v>6808</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>43144</v>
+        <v>42453</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>37413</v>
+        <v>38136</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>21004</v>
+        <v>21828</v>
       </c>
     </row>
     <row r="8">
@@ -2319,37 +2319,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3208</v>
+        <v>3040</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11744</v>
+        <v>11506</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14369</v>
+        <v>15673</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2133</v>
+        <v>2768</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8951</v>
+        <v>9688</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2212</v>
+        <v>2887</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>19649</v>
+        <v>20213</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3696</v>
+        <v>3660</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>15206</v>
+        <v>14999</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>16411</v>
+        <v>16321</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>39935</v>
+        <v>39337</v>
       </c>
     </row>
     <row r="11">
@@ -2360,40 +2360,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5950</v>
+        <v>6263</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15983</v>
+        <v>15531</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>28489</v>
+        <v>26919</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>33650</v>
+        <v>34067</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12042</v>
+        <v>12698</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>25594</v>
+        <v>25814</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12764</v>
+        <v>13246</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>33911</v>
+        <v>35932</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>14751</v>
+        <v>14721</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>35387</v>
+        <v>36057</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>35103</v>
+        <v>35489</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>64063</v>
+        <v>63748</v>
       </c>
     </row>
     <row r="12">
@@ -2497,37 +2497,37 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1844</v>
+        <v>1850</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1978</v>
+        <v>1992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3530</v>
+        <v>3506</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5731</v>
+        <v>5305</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4200</v>
+        <v>4385</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3765</v>
+        <v>3866</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9345</v>
+        <v>9399</v>
       </c>
     </row>
     <row r="15">
@@ -2539,37 +2539,37 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>11531</v>
+        <v>10658</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4961</v>
+        <v>4975</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10537</v>
+        <v>10356</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7627</v>
+        <v>6360</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11941</v>
+        <v>11679</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15227</v>
+        <v>15058</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14305</v>
+        <v>14256</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7917</v>
+        <v>6720</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>19211</v>
+        <v>18128</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>15373</v>
+        <v>15167</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>21394</v>
+        <v>21174</v>
       </c>
     </row>
     <row r="16">
@@ -2675,37 +2675,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3038</v>
+        <v>3030</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5503</v>
+        <v>4212</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1871</v>
+        <v>1791</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3870</v>
+        <v>3915</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>859</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4469</v>
+        <v>4556</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2934</v>
+        <v>2859</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>9732</v>
+        <v>9354</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2968</v>
+        <v>2866</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>11654</v>
+        <v>12053</v>
       </c>
     </row>
     <row r="19">
@@ -2716,40 +2716,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5586</v>
+        <v>5757</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14277</v>
+        <v>13597</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10314</v>
+        <v>10161</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>20863</v>
+        <v>18676</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10874</v>
+        <v>10480</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>17034</v>
+        <v>17166</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8424</v>
+        <v>8005</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13616</v>
+        <v>13932</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13429</v>
+        <v>12794</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>27383</v>
+        <v>26312</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>13963</v>
+        <v>13553</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>30074</v>
+        <v>29025</v>
       </c>
     </row>
     <row r="20">
@@ -2855,37 +2855,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1033</v>
+        <v>971</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10552</v>
+        <v>10363</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2922</v>
+        <v>2950</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>21002</v>
+        <v>20978</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6957</v>
+        <v>6637</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5861</v>
+        <v>5781</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>23044</v>
+        <v>22961</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>19814</v>
+        <v>19643</v>
       </c>
     </row>
     <row r="23">
@@ -2896,40 +2896,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5462</v>
+        <v>4526</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9035</v>
+        <v>8271</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7700</v>
+        <v>7913</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>18669</v>
+        <v>18362</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5546</v>
+        <v>5500</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12530</v>
+        <v>12803</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>36797</v>
+        <v>36374</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>14138</v>
+        <v>13400</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6793</v>
+        <v>6161</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>18239</v>
+        <v>17321</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>42660</v>
+        <v>42982</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>30197</v>
+        <v>30201</v>
       </c>
     </row>
     <row r="24">
@@ -3038,34 +3038,34 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>967</v>
+        <v>949</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6018</v>
+        <v>6097</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1948</v>
+        <v>1940</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1616</v>
+        <v>1816</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2041</v>
+        <v>2018</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>2584</v>
+        <v>2175</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>9060</v>
+        <v>9325</v>
       </c>
     </row>
     <row r="27">
@@ -3076,40 +3076,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5278</v>
+        <v>6268</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5215</v>
+        <v>5276</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8570</v>
+        <v>8638</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>16639</v>
+        <v>16237</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>8808</v>
+        <v>8876</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>10435</v>
+        <v>10299</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9399</v>
+        <v>8895</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6975</v>
+        <v>6940</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>10433</v>
+        <v>9692</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>12083</v>
+        <v>12131</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>13670</v>
+        <v>12984</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>20270</v>
+        <v>21656</v>
       </c>
     </row>
     <row r="28">
@@ -3213,37 +3213,37 @@
       </c>
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="n">
-        <v>6133</v>
+        <v>6008</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4320</v>
+        <v>4340</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>31740</v>
+        <v>32457</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8256</v>
+        <v>8329</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>12597</v>
+        <v>12883</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>19443</v>
+        <v>19298</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1187</v>
+        <v>1113</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>17627</v>
+        <v>17549</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>20454</v>
+        <v>20417</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>55709</v>
+        <v>56452</v>
       </c>
     </row>
     <row r="31">
@@ -3255,37 +3255,37 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>21100</v>
+        <v>21520</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>17334</v>
+        <v>17632</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>54847</v>
+        <v>53597</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>9751</v>
+        <v>10744</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>23688</v>
+        <v>25381</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>31132</v>
+        <v>30931</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>35027</v>
+        <v>34324</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>9925</v>
+        <v>10191</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>38950</v>
+        <v>39421</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>44159</v>
+        <v>43080</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>82147</v>
+        <v>83838</v>
       </c>
     </row>
     <row r="32">
@@ -3389,37 +3389,37 @@
       </c>
       <c r="C34" s="6" t="inlineStr"/>
       <c r="D34" s="6" t="n">
-        <v>5381</v>
+        <v>5369</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>4102</v>
+        <v>4206</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>143437</v>
+        <v>142834</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1063</v>
+        <v>1225</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>11367</v>
+        <v>12333</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>14712</v>
+        <v>14927</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>64018</v>
+        <v>64850</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1232</v>
+        <v>1031</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>20610</v>
+        <v>20462</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>22188</v>
+        <v>21413</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>214228</v>
+        <v>213991</v>
       </c>
     </row>
     <row r="35">
@@ -3431,37 +3431,37 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>19004</v>
+        <v>18592</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>17298</v>
+        <v>17909</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>168192</v>
+        <v>167691</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>11483</v>
+        <v>10636</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>28060</v>
+        <v>28058</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>34253</v>
+        <v>34986</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>86773</v>
+        <v>85991</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>10733</v>
+        <v>10304</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>41166</v>
+        <v>41263</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>44612</v>
+        <v>44698</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>249294</v>
+        <v>248758</v>
       </c>
     </row>
     <row r="36">
@@ -3564,40 +3564,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2825</v>
+        <v>2661</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>44733</v>
+        <v>44727</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>45202</v>
+        <v>46219</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>247143</v>
+        <v>243505</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>18639</v>
+        <v>17402</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>77433</v>
+        <v>80554</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>91792</v>
+        <v>90045</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>152177</v>
+        <v>149448</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>23050</v>
+        <v>23968</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>132778</v>
+        <v>130267</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>144061</v>
+        <v>143448</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>407216</v>
+        <v>408455</v>
       </c>
     </row>
     <row r="39">
@@ -3608,40 +3608,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>13031</v>
+        <v>13106</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>76712</v>
+        <v>76245</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>75899</v>
+        <v>76049</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>294812</v>
+        <v>296203</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>38450</v>
+        <v>38165</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>114828</v>
+        <v>119100</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>130375</v>
+        <v>129469</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>188514</v>
+        <v>186428</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>46060</v>
+        <v>46452</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>184426</v>
+        <v>181203</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>195526</v>
+        <v>191991</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>466581</v>
+        <v>469705</v>
       </c>
     </row>
     <row r="40">
